--- a/xls/passport/backup/template.xlsx
+++ b/xls/passport/backup/template.xlsx
@@ -13,13 +13,16 @@
     <sheet name="Прибуток" sheetId="7" r:id="rId4"/>
     <sheet name="ЄСВ" sheetId="8" r:id="rId5"/>
     <sheet name="Пов’язані" sheetId="9" r:id="rId6"/>
+    <sheet name="ПДВ" sheetId="14" r:id="rId7"/>
+    <sheet name="ПДВ РІК" sheetId="15" r:id="rId8"/>
+    <sheet name="Повідомлення" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="227">
   <si>
     <t>ДПІ</t>
   </si>
@@ -542,6 +545,171 @@
   </si>
   <si>
     <t>2_Пасиви Б1495</t>
+  </si>
+  <si>
+    <t>[PERIOD_TYPE1]</t>
+  </si>
+  <si>
+    <t>[TYP_DECL]</t>
+  </si>
+  <si>
+    <t>[R11A]</t>
+  </si>
+  <si>
+    <t>[R11B]</t>
+  </si>
+  <si>
+    <t>[R12A]</t>
+  </si>
+  <si>
+    <t>[R12B]</t>
+  </si>
+  <si>
+    <t>[R20A]</t>
+  </si>
+  <si>
+    <t>[R30A]</t>
+  </si>
+  <si>
+    <t>[R90B]</t>
+  </si>
+  <si>
+    <t>[R101A]</t>
+  </si>
+  <si>
+    <t>[R101B]</t>
+  </si>
+  <si>
+    <t>[R102A]</t>
+  </si>
+  <si>
+    <t>[R103A]</t>
+  </si>
+  <si>
+    <t>[R111B]</t>
+  </si>
+  <si>
+    <t>[R112B]</t>
+  </si>
+  <si>
+    <t>[R170B]</t>
+  </si>
+  <si>
+    <t>[R180B]</t>
+  </si>
+  <si>
+    <t>[R181B]</t>
+  </si>
+  <si>
+    <t>[R190B]</t>
+  </si>
+  <si>
+    <t>[R210B]</t>
+  </si>
+  <si>
+    <t>[NAVANT]</t>
+  </si>
+  <si>
+    <t>Тип періоду</t>
+  </si>
+  <si>
+    <t>Звітний період або період, який уточнюється</t>
+  </si>
+  <si>
+    <t>Тип декларації</t>
+  </si>
+  <si>
+    <t>Р1.1А</t>
+  </si>
+  <si>
+    <t>Р1.1Б</t>
+  </si>
+  <si>
+    <t>Р1.2А</t>
+  </si>
+  <si>
+    <t>Р1.2Б</t>
+  </si>
+  <si>
+    <t>Р2А</t>
+  </si>
+  <si>
+    <t>Р3А</t>
+  </si>
+  <si>
+    <t>Р9Б</t>
+  </si>
+  <si>
+    <t>Р10.1А</t>
+  </si>
+  <si>
+    <t>Р10.1Б</t>
+  </si>
+  <si>
+    <t>Р10.2А</t>
+  </si>
+  <si>
+    <t>Р10.3А</t>
+  </si>
+  <si>
+    <t>Р11.1Б</t>
+  </si>
+  <si>
+    <t>Р11.2Б</t>
+  </si>
+  <si>
+    <t>Р17Б</t>
+  </si>
+  <si>
+    <t>Р18Б</t>
+  </si>
+  <si>
+    <t>Р18.1Б</t>
+  </si>
+  <si>
+    <t>Р19Б</t>
+  </si>
+  <si>
+    <t>Р21Б</t>
+  </si>
+  <si>
+    <t>Навантаження Р18Б/ (Р1.1А+Р1.2Б) %</t>
+  </si>
+  <si>
+    <t>Дані по деклараціях ПДВ по місяцях, тис.грн.</t>
+  </si>
+  <si>
+    <t>К-сть декларацій</t>
+  </si>
+  <si>
+    <t>Всього зоб. Р9Б</t>
+  </si>
+  <si>
+    <t>Кредит 20% Р10.1А</t>
+  </si>
+  <si>
+    <t>Дані по деклараціях ПДВ по роках, тис.грн.</t>
+  </si>
+  <si>
+    <t>[R18B]</t>
+  </si>
+  <si>
+    <t>[KIL]</t>
+  </si>
+  <si>
+    <t>К-сть повідомлень</t>
+  </si>
+  <si>
+    <t>Прийнято найманих</t>
+  </si>
+  <si>
+    <t>Інформація про прийняття найманих працівників</t>
+  </si>
+  <si>
+    <t>[K_ST_POVID]</t>
+  </si>
+  <si>
+    <t>[K_ST_PRAZ]</t>
   </si>
 </sst>
 </file>
@@ -552,7 +720,7 @@
     <numFmt numFmtId="164" formatCode="#,###"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,8 +770,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +788,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -749,6 +930,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1113,15 +1316,15 @@
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
@@ -1130,15 +1333,15 @@
       <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -1163,15 +1366,15 @@
       <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -1180,29 +1383,29 @@
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -1211,15 +1414,15 @@
       <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="17" t="s">
@@ -2049,4 +2252,323 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:Z4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z1" s="45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" ht="105" x14ac:dyDescent="0.25">
+      <c r="B3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="T3" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="U3" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="V3" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="W3" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="X3" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y3" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z3" s="44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="O4" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="P4" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="R4" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="T4" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="U4" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="V4" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="W4" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="X4" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y4" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z4" s="47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K1" s="45" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" scale="99" fitToHeight="1000" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xls/passport/backup/template.xlsx
+++ b/xls/passport/backup/template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -16,13 +16,15 @@
     <sheet name="ПДВ" sheetId="14" r:id="rId7"/>
     <sheet name="ПДВ РІК" sheetId="15" r:id="rId8"/>
     <sheet name="Повідомлення" sheetId="16" r:id="rId9"/>
+    <sheet name="Реєстр ПДВ" sheetId="17" r:id="rId10"/>
+    <sheet name="Засновники" sheetId="18" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="252">
   <si>
     <t>ДПІ</t>
   </si>
@@ -710,6 +712,88 @@
   </si>
   <si>
     <t>[K_ST_PRAZ]</t>
+  </si>
+  <si>
+    <t>Дані з реєстру ПДВ</t>
+  </si>
+  <si>
+    <t>[C_STI_MAIN]</t>
+  </si>
+  <si>
+    <t>[KOD_PDV]</t>
+  </si>
+  <si>
+    <t>[DAT_ZAYAV]</t>
+  </si>
+  <si>
+    <t>[DAT_REESTR]</t>
+  </si>
+  <si>
+    <t>[DAT_SVD]</t>
+  </si>
+  <si>
+    <t>[NOM_SVD]</t>
+  </si>
+  <si>
+    <t>[DAT_ANUL]</t>
+  </si>
+  <si>
+    <t>[IS_ACTUAL]</t>
+  </si>
+  <si>
+    <t>КОД ПДВ</t>
+  </si>
+  <si>
+    <t>Актуальність</t>
+  </si>
+  <si>
+    <t>Дата 
+заяви</t>
+  </si>
+  <si>
+    <t>Дата реєстрації 
+платником ПДВ</t>
+  </si>
+  <si>
+    <t>Дата 
+свідоцтва</t>
+  </si>
+  <si>
+    <t>Номер 
+свідоцтва</t>
+  </si>
+  <si>
+    <t>Дата 
+анулювання</t>
+  </si>
+  <si>
+    <t>Засновники зі статутним фондом &gt; 10%</t>
+  </si>
+  <si>
+    <t>[KOD_FOUND]</t>
+  </si>
+  <si>
+    <t>[NAME]</t>
+  </si>
+  <si>
+    <t>[SUM_INFUND]</t>
+  </si>
+  <si>
+    <t>[VIDS]</t>
+  </si>
+  <si>
+    <t>Назва засновника</t>
+  </si>
+  <si>
+    <t>Відсоток</t>
+  </si>
+  <si>
+    <t>Код 
+засновника</t>
+  </si>
+  <si>
+    <t>Статутний 
+фонд</t>
   </si>
 </sst>
 </file>
@@ -1477,6 +1561,146 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" fitToHeight="1000" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
